--- a/RoboRTS-Firmware-master/Parameters.xlsx
+++ b/RoboRTS-Firmware-master/Parameters.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{327F3671-1C0F-43E2-B72B-64AAB1223440}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="sys_config.h" sheetId="1" r:id="rId1"/>
+    <sheet name="Gimbal_PID" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="83">
   <si>
     <t>Parameter</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -253,7 +253,7 @@
         <i/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -264,7 +264,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -273,22 +273,58 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>kp_pit</t>
+  </si>
+  <si>
+    <t>ki_pit</t>
+  </si>
+  <si>
+    <t>kd_pit</t>
+  </si>
+  <si>
+    <t>kp_yaw</t>
+  </si>
+  <si>
+    <t>ki_yaw</t>
+  </si>
+  <si>
+    <t>kd_yaw</t>
+  </si>
+  <si>
+    <t>speed_p_kp</t>
+  </si>
+  <si>
+    <t>speed_p_ki</t>
+  </si>
+  <si>
+    <t>speed_p_kd</t>
+  </si>
+  <si>
+    <t>speed_y_kp</t>
+  </si>
+  <si>
+    <t>speed_y_ki</t>
+  </si>
+  <si>
+    <t>speed_y_kd</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -297,7 +333,7 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -305,7 +341,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -331,7 +367,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -343,17 +379,23 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="15">
     <dxf>
@@ -736,46 +778,46 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14.4140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="25.75" style="2" customWidth="1"/>
-    <col min="4" max="4" width="24.9140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="23.83203125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="28.25" style="2" customWidth="1"/>
-    <col min="7" max="7" width="25.58203125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="25.1640625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="23.1640625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="25.4140625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="24.58203125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="24.9140625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="25.1640625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="26.4140625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="25.1640625" style="2" customWidth="1"/>
-    <col min="16" max="16" width="26.4140625" style="2" customWidth="1"/>
-    <col min="17" max="17" width="24.9140625" style="2" customWidth="1"/>
-    <col min="18" max="18" width="25.08203125" style="2" customWidth="1"/>
-    <col min="19" max="19" width="8.6640625" style="2" customWidth="1"/>
-    <col min="20" max="20" width="10.9140625" style="2" customWidth="1"/>
-    <col min="21" max="21" width="16.5" style="2" customWidth="1"/>
-    <col min="22" max="22" width="16.33203125" style="2" customWidth="1"/>
-    <col min="23" max="24" width="19.6640625" style="2" customWidth="1"/>
-    <col min="25" max="25" width="22.6640625" style="2" customWidth="1"/>
-    <col min="26" max="28" width="18.25" style="2" customWidth="1"/>
-    <col min="29" max="34" width="25.9140625" style="2" customWidth="1"/>
-    <col min="35" max="36" width="16.58203125" style="2" customWidth="1"/>
-    <col min="37" max="16384" width="8.6640625" style="2"/>
+    <col min="1" max="1" width="9.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="23.85546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="28.28515625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="25.5703125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="25.140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="23.140625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="25.42578125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="24.5703125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="24.85546875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="25.140625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="26.42578125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="25.140625" style="2" customWidth="1"/>
+    <col min="16" max="16" width="26.42578125" style="2" customWidth="1"/>
+    <col min="17" max="17" width="24.85546875" style="2" customWidth="1"/>
+    <col min="18" max="18" width="25.140625" style="2" customWidth="1"/>
+    <col min="19" max="19" width="8.7109375" style="2" customWidth="1"/>
+    <col min="20" max="20" width="10.85546875" style="2" customWidth="1"/>
+    <col min="21" max="21" width="16.42578125" style="2" customWidth="1"/>
+    <col min="22" max="22" width="16.28515625" style="2" customWidth="1"/>
+    <col min="23" max="24" width="19.7109375" style="2" customWidth="1"/>
+    <col min="25" max="25" width="22.7109375" style="2" customWidth="1"/>
+    <col min="26" max="28" width="18.28515625" style="2" customWidth="1"/>
+    <col min="29" max="34" width="25.85546875" style="2" customWidth="1"/>
+    <col min="35" max="36" width="16.5703125" style="2" customWidth="1"/>
+    <col min="37" max="16384" width="8.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:36" ht="14.1" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -885,7 +927,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:36" ht="56" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:36" ht="56.1" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -968,7 +1010,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:36">
       <c r="A3" s="3">
         <v>43529</v>
       </c>
@@ -1050,25 +1092,25 @@
       <c r="AA3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="AB3" s="6" t="s">
+      <c r="AB3" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="AC3" s="6" t="s">
+      <c r="AC3" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="AD3" s="6" t="s">
+      <c r="AD3" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="AE3" s="6">
+      <c r="AE3" s="5">
         <v>16</v>
       </c>
-      <c r="AF3" s="6">
+      <c r="AF3" s="5">
         <v>-14</v>
       </c>
-      <c r="AG3" s="6">
+      <c r="AG3" s="5">
         <v>50</v>
       </c>
-      <c r="AH3" s="6">
+      <c r="AH3" s="5">
         <v>-50</v>
       </c>
       <c r="AI3" s="2">
@@ -1078,7 +1120,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:36">
       <c r="A4" s="3">
         <v>43534</v>
       </c>
@@ -1188,35 +1230,35 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:36" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:36" ht="14.1" customHeight="1">
+      <c r="A9" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
     </row>
-    <row r="10" spans="1:36" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
+    <row r="10" spans="1:36" ht="14.1" customHeight="1">
+      <c r="A10" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
     </row>
-    <row r="11" spans="1:36" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
+    <row r="11" spans="1:36" ht="14.1" customHeight="1">
+      <c r="A11" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
     </row>
-    <row r="12" spans="1:36" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
+    <row r="12" spans="1:36" ht="14.1" customHeight="1">
+      <c r="A12" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:36">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1257,4 +1299,167 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" customWidth="1"/>
+    <col min="10" max="10" width="15" customWidth="1"/>
+    <col min="11" max="11" width="12.85546875" customWidth="1"/>
+    <col min="12" max="12" width="12" customWidth="1"/>
+    <col min="13" max="13" width="13.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K1" t="s">
+        <v>80</v>
+      </c>
+      <c r="L1" t="s">
+        <v>81</v>
+      </c>
+      <c r="M1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="3">
+        <v>43529</v>
+      </c>
+      <c r="B3">
+        <v>156</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>205.2</v>
+      </c>
+      <c r="E3">
+        <v>156</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>450</v>
+      </c>
+      <c r="H3">
+        <v>3</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>3</v>
+      </c>
+      <c r="K3">
+        <v>3</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="8">
+        <v>43534</v>
+      </c>
+      <c r="B4">
+        <v>170</v>
+      </c>
+      <c r="C4">
+        <v>3.5</v>
+      </c>
+      <c r="D4">
+        <v>100</v>
+      </c>
+      <c r="E4">
+        <v>1200</v>
+      </c>
+      <c r="F4">
+        <v>15</v>
+      </c>
+      <c r="G4">
+        <v>30</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>3</v>
+      </c>
+      <c r="K4">
+        <v>10</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B4:XFD4">
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="notEqual">
+      <formula>B3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="notEqual">
+      <formula>A3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
 </file>
--- a/RoboRTS-Firmware-master/Parameters.xlsx
+++ b/RoboRTS-Firmware-master/Parameters.xlsx
@@ -3,14 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{327F3671-1C0F-43E2-B72B-64AAB1223440}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D407B05-C9A1-4590-A304-BEDE770B2923}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sys_config.h" sheetId="1" r:id="rId1"/>
+    <sheet name="Gimbal_PID" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="83">
   <si>
     <t>Parameter</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -272,6 +273,42 @@
       <t xml:space="preserve"> automatically</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kp_pit</t>
+  </si>
+  <si>
+    <t>ki_pit</t>
+  </si>
+  <si>
+    <t>kd_pit</t>
+  </si>
+  <si>
+    <t>kp_yaw</t>
+  </si>
+  <si>
+    <t>ki_yaw</t>
+  </si>
+  <si>
+    <t>kd_yaw</t>
+  </si>
+  <si>
+    <t>speed_p_kp</t>
+  </si>
+  <si>
+    <t>speed_p_ki</t>
+  </si>
+  <si>
+    <t>speed_p_kd</t>
+  </si>
+  <si>
+    <t>speed_y_kp</t>
+  </si>
+  <si>
+    <t>speed_y_ki</t>
+  </si>
+  <si>
+    <t>speed_y_kd</t>
   </si>
 </sst>
 </file>
@@ -331,7 +368,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -343,47 +380,25 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="11">
     <dxf>
       <fill>
         <patternFill>
@@ -739,16 +754,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="9.75" style="2" customWidth="1"/>
     <col min="2" max="2" width="14.4140625" style="2" customWidth="1"/>
     <col min="3" max="3" width="25.75" style="2" customWidth="1"/>
-    <col min="4" max="4" width="24.9140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="24.83203125" style="2" customWidth="1"/>
     <col min="5" max="5" width="23.83203125" style="2" customWidth="1"/>
     <col min="6" max="6" width="28.25" style="2" customWidth="1"/>
     <col min="7" max="7" width="25.58203125" style="2" customWidth="1"/>
@@ -756,26 +771,26 @@
     <col min="9" max="9" width="23.1640625" style="2" customWidth="1"/>
     <col min="10" max="10" width="25.4140625" style="2" customWidth="1"/>
     <col min="11" max="11" width="24.58203125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="24.9140625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="24.83203125" style="2" customWidth="1"/>
     <col min="13" max="13" width="25.1640625" style="2" customWidth="1"/>
     <col min="14" max="14" width="26.4140625" style="2" customWidth="1"/>
     <col min="15" max="15" width="25.1640625" style="2" customWidth="1"/>
     <col min="16" max="16" width="26.4140625" style="2" customWidth="1"/>
-    <col min="17" max="17" width="24.9140625" style="2" customWidth="1"/>
-    <col min="18" max="18" width="25.08203125" style="2" customWidth="1"/>
-    <col min="19" max="19" width="8.6640625" style="2" customWidth="1"/>
-    <col min="20" max="20" width="10.9140625" style="2" customWidth="1"/>
-    <col min="21" max="21" width="16.5" style="2" customWidth="1"/>
-    <col min="22" max="22" width="16.33203125" style="2" customWidth="1"/>
-    <col min="23" max="24" width="19.6640625" style="2" customWidth="1"/>
-    <col min="25" max="25" width="22.6640625" style="2" customWidth="1"/>
+    <col min="17" max="17" width="24.83203125" style="2" customWidth="1"/>
+    <col min="18" max="18" width="25.1640625" style="2" customWidth="1"/>
+    <col min="19" max="19" width="8.75" style="2" customWidth="1"/>
+    <col min="20" max="20" width="10.83203125" style="2" customWidth="1"/>
+    <col min="21" max="21" width="16.4140625" style="2" customWidth="1"/>
+    <col min="22" max="22" width="16.25" style="2" customWidth="1"/>
+    <col min="23" max="24" width="19.75" style="2" customWidth="1"/>
+    <col min="25" max="25" width="22.75" style="2" customWidth="1"/>
     <col min="26" max="28" width="18.25" style="2" customWidth="1"/>
-    <col min="29" max="34" width="25.9140625" style="2" customWidth="1"/>
+    <col min="29" max="34" width="25.83203125" style="2" customWidth="1"/>
     <col min="35" max="36" width="16.58203125" style="2" customWidth="1"/>
-    <col min="37" max="16384" width="8.6640625" style="2"/>
+    <col min="37" max="16384" width="8.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:36" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -885,7 +900,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:36" ht="56" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:36" ht="56.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1050,25 +1065,25 @@
       <c r="AA3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="AB3" s="6" t="s">
+      <c r="AB3" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="AC3" s="6" t="s">
+      <c r="AC3" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="AD3" s="6" t="s">
+      <c r="AD3" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="AE3" s="6">
+      <c r="AE3" s="5">
         <v>16</v>
       </c>
-      <c r="AF3" s="6">
+      <c r="AF3" s="5">
         <v>-14</v>
       </c>
-      <c r="AG3" s="6">
+      <c r="AG3" s="5">
         <v>50</v>
       </c>
-      <c r="AH3" s="6">
+      <c r="AH3" s="5">
         <v>-50</v>
       </c>
       <c r="AI3" s="2">
@@ -1188,33 +1203,33 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:36" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:36" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
     </row>
-    <row r="10" spans="1:36" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
+    <row r="10" spans="1:36" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
     </row>
-    <row r="11" spans="1:36" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
+    <row r="11" spans="1:36" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
     </row>
-    <row r="12" spans="1:36" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
+    <row r="12" spans="1:36" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
@@ -1230,31 +1245,246 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A4:XFD4">
-    <cfRule type="cellIs" dxfId="14" priority="5" operator="notEqual">
+    <cfRule type="cellIs" dxfId="10" priority="5" operator="notEqual">
       <formula>A3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:F4">
-    <cfRule type="cellIs" dxfId="13" priority="4" operator="notEqual">
+    <cfRule type="cellIs" dxfId="9" priority="4" operator="notEqual">
       <formula>C3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U4">
-    <cfRule type="cellIs" dxfId="12" priority="3" operator="notEqual">
+    <cfRule type="cellIs" dxfId="8" priority="3" operator="notEqual">
       <formula>U3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V4">
-    <cfRule type="cellIs" dxfId="11" priority="2" operator="notEqual">
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="notEqual">
       <formula>V3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P4:T4">
-    <cfRule type="cellIs" dxfId="10" priority="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="notEqual">
       <formula>P3</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:M5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.25" customWidth="1"/>
+    <col min="8" max="8" width="15.83203125" customWidth="1"/>
+    <col min="9" max="9" width="12.83203125" customWidth="1"/>
+    <col min="10" max="10" width="15" customWidth="1"/>
+    <col min="11" max="11" width="12.83203125" customWidth="1"/>
+    <col min="12" max="12" width="12" customWidth="1"/>
+    <col min="13" max="13" width="13.58203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K1" t="s">
+        <v>80</v>
+      </c>
+      <c r="L1" t="s">
+        <v>81</v>
+      </c>
+      <c r="M1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>43529</v>
+      </c>
+      <c r="B3">
+        <v>156</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>205.2</v>
+      </c>
+      <c r="E3">
+        <v>156</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>450</v>
+      </c>
+      <c r="H3">
+        <v>3</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>3</v>
+      </c>
+      <c r="K3">
+        <v>3</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="6">
+        <v>43534</v>
+      </c>
+      <c r="B4">
+        <v>170</v>
+      </c>
+      <c r="C4">
+        <v>3.5</v>
+      </c>
+      <c r="D4">
+        <v>100</v>
+      </c>
+      <c r="E4">
+        <v>1200</v>
+      </c>
+      <c r="F4">
+        <v>15</v>
+      </c>
+      <c r="G4">
+        <v>30</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>3</v>
+      </c>
+      <c r="K4">
+        <v>10</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="6">
+        <v>43541</v>
+      </c>
+      <c r="B5">
+        <v>170</v>
+      </c>
+      <c r="C5">
+        <v>3.5</v>
+      </c>
+      <c r="D5">
+        <v>100</v>
+      </c>
+      <c r="E5">
+        <v>650</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>150</v>
+      </c>
+      <c r="H5">
+        <v>3</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>3</v>
+      </c>
+      <c r="K5">
+        <v>20</v>
+      </c>
+      <c r="L5">
+        <v>-8</v>
+      </c>
+      <c r="M5">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="B4:XFD4">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="notEqual">
+      <formula>B3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="notEqual">
+      <formula>A3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5:XFD5">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="notEqual">
+      <formula>B4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="notEqual">
+      <formula>A4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
 </file>
--- a/RoboRTS-Firmware-master/Parameters.xlsx
+++ b/RoboRTS-Firmware-master/Parameters.xlsx
@@ -3,13 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D407B05-C9A1-4590-A304-BEDE770B2923}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{155432AC-8993-4476-9AA6-34DFFE9C190B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sys_config.h" sheetId="1" r:id="rId1"/>
     <sheet name="Gimbal_PID" sheetId="2" r:id="rId2"/>
+    <sheet name="Chassis_Position" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="96">
   <si>
     <t>Parameter</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -309,6 +310,58 @@
   </si>
   <si>
     <t>speed_y_kd</t>
+  </si>
+  <si>
+    <t>pid_spd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pid_chassis_angle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ki</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>intergral_limit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;300 = 5000 rmp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Note</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>These parameters are at the line 332, 336 in chassis_task.c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2200.0f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000.0f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -368,7 +421,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -389,16 +442,54 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="15">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -754,8 +845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1203,33 +1294,143 @@
         <v>50</v>
       </c>
     </row>
+    <row r="5" spans="1:36" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>43549</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q5" s="7">
+        <v>2500</v>
+      </c>
+      <c r="R5" s="7">
+        <v>2000</v>
+      </c>
+      <c r="S5" s="7">
+        <v>76</v>
+      </c>
+      <c r="T5" s="7">
+        <v>478</v>
+      </c>
+      <c r="U5" s="7">
+        <v>445</v>
+      </c>
+      <c r="V5" s="7">
+        <v>345</v>
+      </c>
+      <c r="W5" s="7">
+        <v>0</v>
+      </c>
+      <c r="X5" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB5" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE5" s="7">
+        <v>20</v>
+      </c>
+      <c r="AF5" s="7">
+        <v>-20</v>
+      </c>
+      <c r="AG5" s="7">
+        <v>180</v>
+      </c>
+      <c r="AH5" s="7">
+        <v>-180</v>
+      </c>
+      <c r="AI5" s="7">
+        <v>300</v>
+      </c>
+      <c r="AJ5" s="7">
+        <v>50</v>
+      </c>
+    </row>
     <row r="9" spans="1:36" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
     </row>
     <row r="10" spans="1:36" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
     </row>
     <row r="11" spans="1:36" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
     </row>
     <row r="12" spans="1:36" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
@@ -1245,28 +1446,53 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A4:XFD4">
-    <cfRule type="cellIs" dxfId="10" priority="5" operator="notEqual">
+    <cfRule type="cellIs" dxfId="14" priority="10" operator="notEqual">
       <formula>A3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:F4">
-    <cfRule type="cellIs" dxfId="9" priority="4" operator="notEqual">
+    <cfRule type="cellIs" dxfId="13" priority="9" operator="notEqual">
       <formula>C3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U4">
-    <cfRule type="cellIs" dxfId="8" priority="3" operator="notEqual">
+    <cfRule type="cellIs" dxfId="12" priority="8" operator="notEqual">
       <formula>U3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V4">
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="notEqual">
+    <cfRule type="cellIs" dxfId="11" priority="7" operator="notEqual">
       <formula>V3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P4:T4">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="10" priority="6" operator="notEqual">
       <formula>P3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5:XFD5">
+    <cfRule type="cellIs" dxfId="9" priority="5" operator="notEqual">
+      <formula>A4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5:F5">
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="notEqual">
+      <formula>C4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U5">
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="notEqual">
+      <formula>U4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V5">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="notEqual">
+      <formula>V4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P5:T5">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="notEqual">
+      <formula>P4</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1278,8 +1504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1465,26 +1691,210 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B4:XFD4">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="notEqual">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="notEqual">
       <formula>B3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="notEqual">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="notEqual">
       <formula>A3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:XFD5">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="notEqual">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="notEqual">
       <formula>B4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="notEqual">
       <formula>A4</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44A0A821-D4A4-466C-BDEA-E447256B087A}">
+  <dimension ref="A1:O5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:M1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="2.08203125" customWidth="1"/>
+    <col min="13" max="13" width="15.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="M2" s="14" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="14"/>
+      <c r="B3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F3" t="s">
+        <v>87</v>
+      </c>
+      <c r="G3" t="s">
+        <v>89</v>
+      </c>
+      <c r="H3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I3" t="s">
+        <v>85</v>
+      </c>
+      <c r="J3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K3" t="s">
+        <v>87</v>
+      </c>
+      <c r="M3" s="14"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="8">
+        <v>43534</v>
+      </c>
+      <c r="B4">
+        <v>8000</v>
+      </c>
+      <c r="C4">
+        <v>500</v>
+      </c>
+      <c r="D4" s="11">
+        <v>4.5</v>
+      </c>
+      <c r="E4" s="11">
+        <v>0.05</v>
+      </c>
+      <c r="F4" s="11">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>300</v>
+      </c>
+      <c r="H4">
+        <v>50</v>
+      </c>
+      <c r="I4" s="11">
+        <v>14</v>
+      </c>
+      <c r="J4" s="11">
+        <v>0</v>
+      </c>
+      <c r="K4" s="11">
+        <v>50</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="8">
+        <v>43549</v>
+      </c>
+      <c r="B5">
+        <v>8000</v>
+      </c>
+      <c r="C5">
+        <v>500</v>
+      </c>
+      <c r="D5" s="11">
+        <v>4.5</v>
+      </c>
+      <c r="E5" s="11">
+        <v>0.05</v>
+      </c>
+      <c r="F5" s="11">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>300</v>
+      </c>
+      <c r="H5">
+        <v>50</v>
+      </c>
+      <c r="I5" s="11">
+        <v>10</v>
+      </c>
+      <c r="J5" s="11">
+        <v>0</v>
+      </c>
+      <c r="K5" s="11">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="G2:K2"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="M2:M3"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="A5:K5">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="notEqual">
+      <formula>A4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/RoboRTS-Firmware-master/Parameters.xlsx
+++ b/RoboRTS-Firmware-master/Parameters.xlsx
@@ -1,14 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{155432AC-8993-4476-9AA6-34DFFE9C190B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sys_config.h" sheetId="1" r:id="rId1"/>
     <sheet name="Gimbal_PID" sheetId="2" r:id="rId2"/>
+    <sheet name="Chassis_Position" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -20,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="96">
   <si>
     <t>Parameter</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -253,7 +255,7 @@
         <i/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -264,7 +266,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -309,22 +311,74 @@
   <si>
     <t>speed_y_kd</t>
   </si>
+  <si>
+    <t>pid_spd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pid_chassis_angle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ki</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>intergral_limit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;300 = 5000 rmp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Note</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>These parameters are at the line 332, 336 in chassis_task.c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2200.0f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000.0f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -333,7 +387,7 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -341,7 +395,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -367,7 +421,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -384,18 +438,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="15">
     <dxf>
@@ -778,46 +842,46 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="25.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="23.85546875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="28.28515625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="25.5703125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="25.140625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="23.140625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="25.42578125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="24.5703125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="24.85546875" style="2" customWidth="1"/>
-    <col min="13" max="13" width="25.140625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="26.42578125" style="2" customWidth="1"/>
-    <col min="15" max="15" width="25.140625" style="2" customWidth="1"/>
-    <col min="16" max="16" width="26.42578125" style="2" customWidth="1"/>
-    <col min="17" max="17" width="24.85546875" style="2" customWidth="1"/>
-    <col min="18" max="18" width="25.140625" style="2" customWidth="1"/>
-    <col min="19" max="19" width="8.7109375" style="2" customWidth="1"/>
-    <col min="20" max="20" width="10.85546875" style="2" customWidth="1"/>
-    <col min="21" max="21" width="16.42578125" style="2" customWidth="1"/>
-    <col min="22" max="22" width="16.28515625" style="2" customWidth="1"/>
-    <col min="23" max="24" width="19.7109375" style="2" customWidth="1"/>
-    <col min="25" max="25" width="22.7109375" style="2" customWidth="1"/>
-    <col min="26" max="28" width="18.28515625" style="2" customWidth="1"/>
-    <col min="29" max="34" width="25.85546875" style="2" customWidth="1"/>
-    <col min="35" max="36" width="16.5703125" style="2" customWidth="1"/>
-    <col min="37" max="16384" width="8.7109375" style="2"/>
+    <col min="1" max="1" width="9.75" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.4140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="25.75" style="2" customWidth="1"/>
+    <col min="4" max="4" width="24.83203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="23.83203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="28.25" style="2" customWidth="1"/>
+    <col min="7" max="7" width="25.58203125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="25.1640625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="23.1640625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="25.4140625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="24.58203125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="24.83203125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="25.1640625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="26.4140625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="25.1640625" style="2" customWidth="1"/>
+    <col min="16" max="16" width="26.4140625" style="2" customWidth="1"/>
+    <col min="17" max="17" width="24.83203125" style="2" customWidth="1"/>
+    <col min="18" max="18" width="25.1640625" style="2" customWidth="1"/>
+    <col min="19" max="19" width="8.75" style="2" customWidth="1"/>
+    <col min="20" max="20" width="10.83203125" style="2" customWidth="1"/>
+    <col min="21" max="21" width="16.4140625" style="2" customWidth="1"/>
+    <col min="22" max="22" width="16.25" style="2" customWidth="1"/>
+    <col min="23" max="24" width="19.75" style="2" customWidth="1"/>
+    <col min="25" max="25" width="22.75" style="2" customWidth="1"/>
+    <col min="26" max="28" width="18.25" style="2" customWidth="1"/>
+    <col min="29" max="34" width="25.83203125" style="2" customWidth="1"/>
+    <col min="35" max="36" width="16.58203125" style="2" customWidth="1"/>
+    <col min="37" max="16384" width="8.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="14.1" customHeight="1">
+    <row r="1" spans="1:36" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -927,7 +991,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:36" ht="56.1" customHeight="1">
+    <row r="2" spans="1:36" ht="56.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1010,7 +1074,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:36">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>43529</v>
       </c>
@@ -1120,7 +1184,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:36">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>43534</v>
       </c>
@@ -1230,35 +1294,145 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:36" ht="14.1" customHeight="1">
-      <c r="A9" s="6" t="s">
+    <row r="5" spans="1:36" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>43549</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q5" s="7">
+        <v>2500</v>
+      </c>
+      <c r="R5" s="7">
+        <v>2000</v>
+      </c>
+      <c r="S5" s="7">
+        <v>76</v>
+      </c>
+      <c r="T5" s="7">
+        <v>478</v>
+      </c>
+      <c r="U5" s="7">
+        <v>445</v>
+      </c>
+      <c r="V5" s="7">
+        <v>345</v>
+      </c>
+      <c r="W5" s="7">
+        <v>0</v>
+      </c>
+      <c r="X5" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB5" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE5" s="7">
+        <v>20</v>
+      </c>
+      <c r="AF5" s="7">
+        <v>-20</v>
+      </c>
+      <c r="AG5" s="7">
+        <v>180</v>
+      </c>
+      <c r="AH5" s="7">
+        <v>-180</v>
+      </c>
+      <c r="AI5" s="7">
+        <v>300</v>
+      </c>
+      <c r="AJ5" s="7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
     </row>
-    <row r="10" spans="1:36" ht="14.1" customHeight="1">
-      <c r="A10" s="7" t="s">
+    <row r="10" spans="1:36" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
     </row>
-    <row r="11" spans="1:36" ht="14.1" customHeight="1">
-      <c r="A11" s="7" t="s">
+    <row r="11" spans="1:36" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
     </row>
-    <row r="12" spans="1:36" ht="14.1" customHeight="1">
-      <c r="A12" s="7" t="s">
+    <row r="12" spans="1:36" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
     </row>
-    <row r="13" spans="1:36">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1272,28 +1446,53 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A4:XFD4">
-    <cfRule type="cellIs" dxfId="14" priority="5" operator="notEqual">
+    <cfRule type="cellIs" dxfId="14" priority="10" operator="notEqual">
       <formula>A3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:F4">
-    <cfRule type="cellIs" dxfId="13" priority="4" operator="notEqual">
+    <cfRule type="cellIs" dxfId="13" priority="9" operator="notEqual">
       <formula>C3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U4">
-    <cfRule type="cellIs" dxfId="12" priority="3" operator="notEqual">
+    <cfRule type="cellIs" dxfId="12" priority="8" operator="notEqual">
       <formula>U3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V4">
-    <cfRule type="cellIs" dxfId="11" priority="2" operator="notEqual">
+    <cfRule type="cellIs" dxfId="11" priority="7" operator="notEqual">
       <formula>V3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P4:T4">
-    <cfRule type="cellIs" dxfId="10" priority="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="10" priority="6" operator="notEqual">
       <formula>P3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5:XFD5">
+    <cfRule type="cellIs" dxfId="9" priority="5" operator="notEqual">
+      <formula>A4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5:F5">
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="notEqual">
+      <formula>C4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U5">
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="notEqual">
+      <formula>U4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V5">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="notEqual">
+      <formula>V4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P5:T5">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="notEqual">
+      <formula>P4</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1302,25 +1501,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" customWidth="1"/>
+    <col min="1" max="1" width="13.25" customWidth="1"/>
+    <col min="8" max="8" width="15.83203125" customWidth="1"/>
+    <col min="9" max="9" width="12.83203125" customWidth="1"/>
     <col min="10" max="10" width="15" customWidth="1"/>
-    <col min="11" max="11" width="12.85546875" customWidth="1"/>
+    <col min="11" max="11" width="12.83203125" customWidth="1"/>
     <col min="12" max="12" width="12" customWidth="1"/>
-    <col min="13" max="13" width="13.5703125" customWidth="1"/>
+    <col min="13" max="13" width="13.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1361,12 +1560,12 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>43529</v>
       </c>
@@ -1407,8 +1606,8 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="8">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="6">
         <v>43534</v>
       </c>
       <c r="B4">
@@ -1448,18 +1647,254 @@
         <v>50</v>
       </c>
     </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="6">
+        <v>43541</v>
+      </c>
+      <c r="B5">
+        <v>170</v>
+      </c>
+      <c r="C5">
+        <v>3.5</v>
+      </c>
+      <c r="D5">
+        <v>100</v>
+      </c>
+      <c r="E5">
+        <v>650</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>150</v>
+      </c>
+      <c r="H5">
+        <v>3</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>3</v>
+      </c>
+      <c r="K5">
+        <v>20</v>
+      </c>
+      <c r="L5">
+        <v>-8</v>
+      </c>
+      <c r="M5">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B4:XFD4">
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="notEqual">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="notEqual">
       <formula>B3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="notEqual">
+      <formula>A3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5:XFD5">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="notEqual">
+      <formula>B4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="notEqual">
-      <formula>A3</formula>
+      <formula>A4</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44A0A821-D4A4-466C-BDEA-E447256B087A}">
+  <dimension ref="A1:O5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:M1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="2.08203125" customWidth="1"/>
+    <col min="13" max="13" width="15.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="M2" s="14" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="14"/>
+      <c r="B3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F3" t="s">
+        <v>87</v>
+      </c>
+      <c r="G3" t="s">
+        <v>89</v>
+      </c>
+      <c r="H3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I3" t="s">
+        <v>85</v>
+      </c>
+      <c r="J3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K3" t="s">
+        <v>87</v>
+      </c>
+      <c r="M3" s="14"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="8">
+        <v>43534</v>
+      </c>
+      <c r="B4">
+        <v>8000</v>
+      </c>
+      <c r="C4">
+        <v>500</v>
+      </c>
+      <c r="D4" s="11">
+        <v>4.5</v>
+      </c>
+      <c r="E4" s="11">
+        <v>0.05</v>
+      </c>
+      <c r="F4" s="11">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>300</v>
+      </c>
+      <c r="H4">
+        <v>50</v>
+      </c>
+      <c r="I4" s="11">
+        <v>14</v>
+      </c>
+      <c r="J4" s="11">
+        <v>0</v>
+      </c>
+      <c r="K4" s="11">
+        <v>50</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="8">
+        <v>43549</v>
+      </c>
+      <c r="B5">
+        <v>8000</v>
+      </c>
+      <c r="C5">
+        <v>500</v>
+      </c>
+      <c r="D5" s="11">
+        <v>4.5</v>
+      </c>
+      <c r="E5" s="11">
+        <v>0.05</v>
+      </c>
+      <c r="F5" s="11">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>300</v>
+      </c>
+      <c r="H5">
+        <v>50</v>
+      </c>
+      <c r="I5" s="11">
+        <v>10</v>
+      </c>
+      <c r="J5" s="11">
+        <v>0</v>
+      </c>
+      <c r="K5" s="11">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="G2:K2"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="M2:M3"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="A5:K5">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="notEqual">
+      <formula>A4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>